--- a/Cerinte Proiect 2 .xlsx
+++ b/Cerinte Proiect 2 .xlsx
@@ -630,8 +630,8 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Cerinte Proiect 2 .xlsx
+++ b/Cerinte Proiect 2 .xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Categorie</t>
   </si>
@@ -162,28 +162,19 @@
     <t>lista de branze, ceva butoane</t>
   </si>
   <si>
-    <t>chaos buttton (culoarre si marime font)</t>
-  </si>
-  <si>
-    <t>sa apara o telemea mica (sau buton)</t>
-  </si>
-  <si>
-    <t>pagina de tombola: ai castigat o telemea!</t>
-  </si>
-  <si>
-    <t>pag donatii email</t>
-  </si>
-  <si>
     <t xml:space="preserve">de oaie, capra, vaca si pret </t>
   </si>
   <si>
-    <t>nr de elemente</t>
-  </si>
-  <si>
     <t>da</t>
   </si>
   <si>
-    <t>baga telemeaua in seif</t>
+    <t>jumate</t>
+  </si>
+  <si>
+    <t>doar math</t>
+  </si>
+  <si>
+    <t>nu</t>
   </si>
 </sst>
 </file>
@@ -630,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -658,6 +649,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
       <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
@@ -674,6 +668,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="28"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
@@ -688,6 +685,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" s="28"/>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -698,6 +698,9 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
         <v>8</v>
@@ -708,6 +711,9 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="29"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
@@ -741,6 +747,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
       <c r="B8" s="28"/>
       <c r="C8" s="8" t="s">
         <v>12</v>
@@ -756,7 +765,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="8" t="s">
@@ -786,7 +795,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="8" t="s">
@@ -799,7 +808,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="14" t="s">
@@ -811,6 +820,9 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
       <c r="B13" s="28"/>
       <c r="C13" s="14" t="s">
         <v>17</v>
@@ -822,7 +834,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="8" t="s">
@@ -834,6 +846,9 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
       <c r="B15" s="28"/>
       <c r="C15" s="14" t="s">
         <v>19</v>
@@ -845,7 +860,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="14" t="s">
@@ -857,6 +872,9 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
       <c r="B17" s="28"/>
       <c r="C17" s="14" t="s">
         <v>21</v>
@@ -868,7 +886,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="14" t="s">
@@ -880,6 +898,9 @@
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
       <c r="B19" s="28"/>
       <c r="C19" s="14" t="s">
         <v>23</v>
@@ -891,7 +912,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
@@ -903,6 +924,9 @@
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
       <c r="B21" s="29"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
@@ -917,6 +941,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
       <c r="B22" s="27" t="s">
         <v>26</v>
       </c>
@@ -1031,6 +1058,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
       <c r="B30" s="27" t="s">
         <v>35</v>
       </c>
